--- a/kredyty.xlsx
+++ b/kredyty.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
   <si>
     <t>Plan spłaty kredytu</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>S=</t>
+  </si>
+  <si>
+    <t>Odp. Globalna suma odsetek wynosi 404,45zł</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -539,6 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -548,6 +552,7 @@
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
@@ -1101,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X95"/>
+  <dimension ref="A2:X97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,7 +1836,7 @@
       <c r="B61" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="22">
         <f>C48*F60^C60*(F60-1)/(F60^C60-1)</f>
         <v>1989.2381056995866</v>
       </c>
@@ -1858,7 +1863,7 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="22">
+      <c r="B73" s="23">
         <v>1</v>
       </c>
       <c r="C73" s="19">
@@ -1882,7 +1887,7 @@
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="22">
+      <c r="B74" s="23">
         <v>2</v>
       </c>
       <c r="C74" s="19">
@@ -1907,7 +1912,7 @@
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="22">
+      <c r="B75" s="23">
         <v>3</v>
       </c>
       <c r="C75" s="19">
@@ -1932,7 +1937,7 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="22">
+      <c r="B76" s="23">
         <v>4</v>
       </c>
       <c r="C76" s="19">
@@ -1957,7 +1962,7 @@
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="22">
+      <c r="B77" s="23">
         <v>5</v>
       </c>
       <c r="C77" s="19">
@@ -1982,7 +1987,7 @@
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="22">
+      <c r="B78" s="23">
         <v>6</v>
       </c>
       <c r="C78" s="19">
@@ -2007,10 +2012,10 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="23">
+      <c r="B79" s="24">
         <v>7</v>
       </c>
-      <c r="C79" s="26">
+      <c r="C79" s="27">
         <f t="shared" si="12"/>
         <v>2489.7847510795154</v>
       </c>
@@ -2032,10 +2037,10 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="23">
+      <c r="B80" s="24">
         <v>8</v>
       </c>
-      <c r="C80" s="26">
+      <c r="C80" s="21">
         <f t="shared" si="12"/>
         <v>1876.597838979081</v>
       </c>
@@ -2057,10 +2062,10 @@
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="23">
+      <c r="B81" s="24">
         <v>9</v>
       </c>
-      <c r="C81" s="26">
+      <c r="C81" s="21">
         <f t="shared" si="12"/>
         <v>1257.279057757642</v>
       </c>
@@ -2082,10 +2087,10 @@
       </c>
     </row>
     <row r="82" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="23">
+      <c r="B82" s="24">
         <v>10</v>
       </c>
-      <c r="C82" s="26">
+      <c r="C82" s="21">
         <f t="shared" si="12"/>
         <v>631.76708872398876</v>
       </c>
@@ -2141,10 +2146,10 @@
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="25">
         <f>C86/12</f>
         <v>1.2499999999999999E-2</v>
       </c>
@@ -2162,73 +2167,78 @@
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C90" s="25">
+      <c r="C90" s="26">
         <f>C89/12</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="24">
+      <c r="C92" s="25">
         <v>6000</v>
       </c>
-      <c r="E92" s="25" t="s">
+      <c r="E92" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F92" s="27">
+      <c r="F92" s="28">
         <f>C79</f>
         <v>2489.7847510795154</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="24" t="s">
+      <c r="B93" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="24">
+      <c r="C93" s="25">
         <f>C87+1</f>
         <v>1.0125</v>
       </c>
-      <c r="E93" s="25" t="s">
+      <c r="E93" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F93" s="25">
+      <c r="F93" s="26">
         <f>C90+1</f>
         <v>1.01</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C94" s="24">
+      <c r="C94" s="25">
         <v>10</v>
       </c>
-      <c r="E94" s="25" t="s">
+      <c r="E94" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F94" s="25">
+      <c r="F94" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C95" s="28">
+      <c r="C95" s="29">
         <f>C92*C93^C94*(C93-1)/(C93^C94-1)</f>
         <v>642.01844382750198</v>
       </c>
-      <c r="E95" s="25" t="s">
+      <c r="E95" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="29">
+      <c r="F95" s="30">
         <f>F92*F93^F94*(F93-1)/(F93^F94-1)</f>
         <v>638.08475961122963</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="31" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
